--- a/DataFiles/DetailsFileLive.xlsx
+++ b/DataFiles/DetailsFileLive.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Varibles</t>
   </si>
@@ -166,9 +166,6 @@
     <t>ADSt07M1</t>
   </si>
   <si>
-    <t>ManualAlarmNameForChatNewApi</t>
-  </si>
-  <si>
     <t>ManualAlarmNameForChatOldApi</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>BG_Template alarm Escalate from st 07 to st 06</t>
   </si>
   <si>
-    <t>BG-MA by attribute for extend-19.02.2026_132229</t>
-  </si>
-  <si>
     <t>BG_AT by Atrribute_20.02.2026_060238</t>
   </si>
   <si>
@@ -197,6 +191,18 @@
   </si>
   <si>
     <t>BG-MA by attribute for extend-20.02.2026_072459</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_20.02.2026_102122</t>
+  </si>
+  <si>
+    <t>BG_Resource_20.02.2026_102122</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_20.02.2026_102122</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_21.02.2026_102122</t>
   </si>
 </sst>
 </file>
@@ -553,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,14 +741,14 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21">
       <c r="B21" t="s" s="0">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="B22" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -765,9 +771,9 @@
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25">
       <c r="B25" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -798,30 +804,30 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29">
       <c r="B29" t="s" s="0">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="B30" t="s" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>50</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s" s="0">
         <v>52</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/DetailsFileLive.xlsx
+++ b/DataFiles/DetailsFileLive.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Varibles</t>
   </si>
@@ -203,6 +203,24 @@
   </si>
   <si>
     <t>Bg_1 Day Information-Event by Fire fighter (two Station)_21.02.2026_102122</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_21.02.2026_115242</t>
+  </si>
+  <si>
+    <t>BG-MA by attribute for extend-20.02.2026_124725</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_20.02.2026_124725</t>
+  </si>
+  <si>
+    <t>BG_Resource_20.02.2026_124725</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_20.02.2026_124725</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_21.02.2026_124725</t>
   </si>
 </sst>
 </file>
@@ -743,12 +761,12 @@
     </row>
     <row r="21">
       <c r="B21" t="s" s="0">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -773,7 +791,7 @@
     </row>
     <row r="25">
       <c r="B25" t="s" s="0">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -806,12 +824,12 @@
     </row>
     <row r="29">
       <c r="B29" t="s" s="0">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="B30" t="s" s="0">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:7">
